--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>42.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.25</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4897</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1661,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.76</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1908,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +1946,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +1984,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01177-中国生物制药.xlsx
+++ b/数据整理/stocks/港股/01177-中国生物制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>4.09</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.14</t>
+          <t>69.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>99.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6445</t>
+          <t>3.5937</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513700</t>
+          <t>159892</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1595</t>
+          <t>0.3055</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159892</t>
+          <t>513700</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>95.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1114</t>
+          <t>0.1732</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>广发中证香港创新药（QDII-ETF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>98.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.1417</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -813,31 +830,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>99.22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0811</t>
+          <t>0.0816</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,226 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>006127</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -950,26 +1157,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>60.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4897</t>
+          <t>3.6445</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -988,26 +1195,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>92.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1850</t>
+          <t>0.1595</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1026,26 +1233,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.1114</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1064,22 +1271,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1102,26 +1309,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.10</t>
+          <t>99.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.0811</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1145,12 +1352,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1224,36 +1431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513700</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+          <t>博时恒生医疗保健ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>98.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2277</t>
+          <t>1.4897</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1262,36 +1469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>513700</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时恒生医疗保健ETF（QDII）</t>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1771</t>
+          <t>0.1850</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1310,26 +1517,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1477</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1348,26 +1555,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1271</t>
+          <t>0.0818</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1386,26 +1593,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>99.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0799</t>
+          <t>0.0674</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1424,26 +1631,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1452,6 +1659,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1773,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
